--- a/sql/rezultaty/prezentacja/dane_excel.xlsx
+++ b/sql/rezultaty/prezentacja/dane_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="5568" windowHeight="6828"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="5568" windowHeight="6828" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>d_republikanie</t>
   </si>
@@ -85,6 +85,36 @@
   </si>
   <si>
     <t>Pow 40%</t>
+  </si>
+  <si>
+    <t>kategoria</t>
+  </si>
+  <si>
+    <t>IV kategorii</t>
+  </si>
+  <si>
+    <t>udział czarnoskórych w społeczeństwie</t>
+  </si>
+  <si>
+    <t>poziom dochodów w społeczeństwie</t>
+  </si>
+  <si>
+    <t>poziom imigrantów w społeczeństwie</t>
+  </si>
+  <si>
+    <t>właściciele nieruchomości w społeczeństwie</t>
+  </si>
+  <si>
+    <t>udział kobiet w społeczeństwie</t>
+  </si>
+  <si>
+    <t>udział weteranów w społeczeństwie</t>
+  </si>
+  <si>
+    <t>udział osób 65+ w społeczeństwie</t>
+  </si>
+  <si>
+    <t>poziom wykształcenia</t>
   </si>
 </sst>
 </file>
@@ -94,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +142,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Twentieth Century"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Twentieth Century"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -157,11 +198,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -171,6 +227,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -311,11 +379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99988608"/>
-        <c:axId val="99990144"/>
+        <c:axId val="97629312"/>
+        <c:axId val="97630848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99988608"/>
+        <c:axId val="97629312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -335,7 +403,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99990144"/>
+        <c:crossAx val="97630848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -343,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99990144"/>
+        <c:axId val="97630848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99988608"/>
+        <c:crossAx val="97629312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -498,11 +566,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101333248"/>
-        <c:axId val="101339136"/>
+        <c:axId val="100743424"/>
+        <c:axId val="100749312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101333248"/>
+        <c:axId val="100743424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +590,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101339136"/>
+        <c:crossAx val="100749312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -530,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101339136"/>
+        <c:axId val="100749312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101333248"/>
+        <c:crossAx val="100743424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -671,11 +739,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="101354880"/>
-        <c:axId val="101368960"/>
+        <c:axId val="100765056"/>
+        <c:axId val="100783232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101354880"/>
+        <c:axId val="100765056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +767,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101368960"/>
+        <c:crossAx val="100783232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -707,7 +775,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101368960"/>
+        <c:axId val="100783232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101354880"/>
+        <c:crossAx val="100765056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1128,11 +1196,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.44140625" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
@@ -1146,7 +1214,7 @@
     <col min="10" max="10" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1244,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1274,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1236,7 +1304,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1334,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1364,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1325,12 +1393,12 @@
         <v>7.2658002474893693E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="I11" s="3">
         <v>0.45629207303388403</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1428,7 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1457,7 @@
         <v>7.3917418341218996E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1418,7 +1486,7 @@
         <v>3.20201132760442E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1447,14 +1515,14 @@
         <v>0.35150373076108898</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="3">
         <v>0.428623160429913</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="28.8">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
         <v>18</v>
       </c>
@@ -1513,7 +1581,7 @@
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1542,7 +1610,7 @@
         <v>5.2230699999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="I29" s="3">
         <v>1.6683754200000001E-2</v>
       </c>
@@ -1556,13 +1624,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" ht="52.2">
+      <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" ht="17.399999999999999">
+      <c r="C3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="17.399999999999999">
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" ht="17.399999999999999">
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="17.399999999999999">
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="17.399999999999999">
+      <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="17.399999999999999">
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="17.399999999999999">
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="17.399999999999999">
+      <c r="C10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C3:D10">
+    <sortCondition descending="1" ref="D3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1572,7 +1723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
